--- a/data/Основы ОТС и предмет Экологии (Общая экология 2023)(1-109).xlsx
+++ b/data/Основы ОТС и предмет Экологии (Общая экология 2023)(1-109).xlsx
@@ -689,14 +689,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,12 +842,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1152,152 +1151,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1642,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2659,8 +2659,8 @@
       <c r="B92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C92">
-        <v>3</v>
+      <c r="C92" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
